--- a/3DPrinter_Maths.xlsx
+++ b/3DPrinter_Maths.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\code\klipper_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD48EAE1-6EEA-469B-B5CC-55888451F491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B158143-B7D1-4774-A503-F4419C74D458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="645" windowWidth="13215" windowHeight="13965" xr2:uid="{26BF7729-5063-44FD-BD03-D3D503EBC00F}"/>
+    <workbookView xWindow="2145" yWindow="510" windowWidth="22410" windowHeight="14580" xr2:uid="{26BF7729-5063-44FD-BD03-D3D503EBC00F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rotation Maths" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,6 +35,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+  <si>
+    <t>Requested Extrude</t>
+  </si>
+  <si>
+    <t>Actual Extrude Distance</t>
+  </si>
+  <si>
+    <t>Initial Mark Distance</t>
+  </si>
+  <si>
+    <t>Mark Distance after Extrude</t>
+  </si>
+  <si>
+    <t>Previous Rotation Distance</t>
+  </si>
+  <si>
+    <t>Rotation Distance</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -46,12 +69,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +101,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,6 +120,165 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E2BB9E-BD3B-D12F-98EB-8243D0585251}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="123826"/>
+          <a:ext cx="4762500" cy="4552950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>Then use the following procedure to "measure and trim":</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>Make sure the extruder has filament in it, the hotend is heated to an appropriate temperature, and the printer is ready to extrude.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>Use a marker to place a mark on the filament around 70mm from the intake of the extruder body. Then use a digital calipers to measure the actual distance of that mark as precisely as one can. Note this as &lt;initial_mark_distance&gt;.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>Extrude 50mm of filament with the following command sequence: G91 followed by G1 E50 F60. Note 50mm as &lt;requested_extrude_distance&gt;. Wait for the extruder to finish the move (it will take about 50 seconds). It is important to use the slow extrusion rate for this test as a faster rate can cause high pressure in the extruder which will skew the results. (Do not use the "extrude button" on graphical front-ends for this test as they extrude at a fast rate.)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>Use the digital calipers to measure the new distance between the extruder body and the mark on the filament. Note this as &lt;subsequent_mark_distance&gt;. Then calculate: actual_extrude_distance = &lt;initial_mark_distance&gt; - &lt;subsequent_mark_distance&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>Calculate rotation_distance as: rotation_distance = &lt;previous_rotation_distance&gt; * &lt;actual_extrude_distance&gt; / &lt;requested_extrude_distance&gt; Round the new rotation_distance to three decimal places.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +578,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515CA69B-13EE-4665-9EA3-49315F643794}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B3-B2</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>41.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <f>B8*B7/B6</f>
+        <v>24.063750000000002</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>